--- a/残業申請書_勝俣_2020年6月度.xlsx
+++ b/残業申請書_勝俣_2020年6月度.xlsx
@@ -2223,106 +2223,122 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2333,17 +2349,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2375,6 +2388,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2392,18 +2408,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2444,6 +2458,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2463,197 +2480,133 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2669,6 +2622,31 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2677,35 +2655,57 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3033,7 +3033,7 @@
   <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11:AE11"/>
+      <selection activeCell="K12" sqref="K12:AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3065,30 +3065,30 @@
       <c r="S1" s="135"/>
       <c r="T1" s="135"/>
       <c r="U1" s="136"/>
-      <c r="V1" s="95" t="s">
+      <c r="V1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="95" t="s">
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="95" t="s">
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="95" t="s">
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="109"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="108"/>
     </row>
     <row r="2" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="137"/>
@@ -3112,21 +3112,21 @@
       <c r="S2" s="138"/>
       <c r="T2" s="138"/>
       <c r="U2" s="139"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
       <c r="AK2" s="119"/>
     </row>
     <row r="3" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3151,21 +3151,21 @@
       <c r="S3" s="138"/>
       <c r="T3" s="138"/>
       <c r="U3" s="139"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
       <c r="AK3" s="120"/>
     </row>
     <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3176,11 +3176,11 @@
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="145">
+      <c r="H4" s="146">
         <v>2020</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
       <c r="K4" s="53" t="s">
         <v>81</v>
       </c>
@@ -3198,59 +3198,59 @@
       <c r="S4" s="51"/>
       <c r="T4" s="51"/>
       <c r="U4" s="55"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
       <c r="AK4" s="121"/>
     </row>
     <row r="5" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="142" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="91" t="s">
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="92" t="s">
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="83" t="s">
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="142"/>
       <c r="Z5" s="122"/>
       <c r="AA5" s="123"/>
       <c r="AB5" s="123"/>
@@ -3265,24 +3265,24 @@
       <c r="AK5" s="124"/>
     </row>
     <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="161">
         <v>25</v>
       </c>
-      <c r="L6" s="81"/>
+      <c r="L6" s="161"/>
       <c r="M6" s="17" t="s">
         <v>37</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="Q6" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="R6" s="81">
+      <c r="R6" s="161">
         <v>0</v>
       </c>
-      <c r="S6" s="81"/>
+      <c r="S6" s="161"/>
       <c r="T6" s="17" t="s">
         <v>37</v>
       </c>
@@ -3318,211 +3318,211 @@
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="127" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="88" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="90"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="127"/>
     </row>
     <row r="8" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="128" t="s">
         <v>84</v>
       </c>
       <c r="H8" s="129"/>
       <c r="I8" s="129"/>
       <c r="J8" s="130"/>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
       <c r="AB8" s="131" t="s">
         <v>33</v>
       </c>
       <c r="AC8" s="132"/>
-      <c r="AD8" s="99" t="s">
+      <c r="AD8" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="101" t="s">
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="102"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="153"/>
     </row>
     <row r="9" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="86" t="s">
+      <c r="A9" s="157"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="155"/>
+      <c r="I9" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="86"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="101"/>
       <c r="AC9" s="133"/>
-      <c r="AD9" s="99" t="s">
+      <c r="AD9" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="86" t="s">
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="103" t="s">
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="101" t="s">
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="AK9" s="102"/>
+      <c r="AK9" s="153"/>
     </row>
     <row r="10" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="56">
         <v>1</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="94">
         <f ca="1">DATE(LEFT(NOW(),4),L4-1,21)</f>
         <v>858461</v>
       </c>
-      <c r="C10" s="107"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="95">
         <v>42513</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="125">
+      <c r="F10" s="96"/>
+      <c r="G10" s="78">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="125">
+      <c r="H10" s="79"/>
+      <c r="I10" s="78">
         <v>0</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="147" t="s">
+      <c r="J10" s="79"/>
+      <c r="K10" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="149"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="125">
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="78">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="125">
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="78">
         <v>0</v>
       </c>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="105"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="104"/>
       <c r="AM10" s="1" t="s">
         <v>85</v>
       </c>
@@ -3531,60 +3531,60 @@
       <c r="A11" s="57">
         <v>2</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="94">
         <f>E10+1</f>
         <v>42514</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="95">
         <f>B11+6</f>
         <v>42520</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="125">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="125">
+      <c r="F11" s="96"/>
+      <c r="G11" s="78">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H11" s="79"/>
+      <c r="I11" s="78">
         <v>0</v>
       </c>
-      <c r="J11" s="126"/>
-      <c r="K11" s="147" t="s">
+      <c r="J11" s="79"/>
+      <c r="K11" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="125">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="125">
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="78">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="78">
         <v>0</v>
       </c>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="105"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="104"/>
       <c r="AM11" s="1" t="s">
         <v>83</v>
       </c>
@@ -3593,253 +3593,253 @@
       <c r="A12" s="57">
         <v>3</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="94">
         <f>E11+1</f>
         <v>42521</v>
       </c>
-      <c r="C12" s="107"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="95">
         <f>B12+6</f>
         <v>42527</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="125">
+      <c r="F12" s="96"/>
+      <c r="G12" s="78">
         <v>0</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="125">
+      <c r="H12" s="79"/>
+      <c r="I12" s="78">
         <v>0</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="105"/>
-      <c r="AD12" s="125">
+      <c r="J12" s="79"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="78">
         <v>0</v>
       </c>
-      <c r="AE12" s="126"/>
-      <c r="AF12" s="125">
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="78">
         <v>0</v>
       </c>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="105"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="104"/>
     </row>
     <row r="13" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57">
         <v>4</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="94">
         <f>E12+1</f>
         <v>42528</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="95">
         <f>B13+6</f>
         <v>42534</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="125">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="125">
+      <c r="F13" s="96"/>
+      <c r="G13" s="78">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="78">
         <v>0</v>
       </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="147" t="s">
+      <c r="J13" s="79"/>
+      <c r="K13" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="125">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="125">
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="78">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="78">
         <v>0</v>
       </c>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="105"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="104"/>
     </row>
     <row r="14" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58">
         <v>5</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="94">
         <f>E13+1</f>
         <v>42535</v>
       </c>
-      <c r="C14" s="107"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="95">
         <f ca="1">DATE(LEFT(NOW(),4),L4,20)</f>
         <v>858491</v>
       </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="125">
-        <v>0.25</v>
-      </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="125">
+      <c r="F14" s="96"/>
+      <c r="G14" s="78">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="78">
         <v>0</v>
       </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="147" t="s">
+      <c r="J14" s="79"/>
+      <c r="K14" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="125">
-        <v>0.25</v>
-      </c>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="125">
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="78">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="78">
         <v>0</v>
       </c>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="159"/>
-      <c r="AK14" s="160"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="84"/>
     </row>
     <row r="15" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="150">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="97">
         <f>SUM(G10:H14)</f>
-        <v>0.72916666666666674</v>
-      </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="150">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="97">
         <f>SUM(I10:J14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="151"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="167"/>
-      <c r="S15" s="167"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="167"/>
-      <c r="W15" s="167"/>
-      <c r="X15" s="167"/>
-      <c r="Y15" s="167"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="153" t="s">
+      <c r="J15" s="98"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" s="165"/>
-      <c r="AD15" s="150">
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="97">
         <f>SUM(AD10:AE14)</f>
-        <v>0.72916666666666674</v>
-      </c>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="152">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="99">
         <f>SUM(AF10:AG14)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="153" t="s">
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="154"/>
-      <c r="AJ15" s="161" t="s">
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="AK15" s="162"/>
+      <c r="AK15" s="86"/>
     </row>
     <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="158"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="14"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="13" t="s">
         <v>89</v>
       </c>
@@ -3849,8 +3849,8 @@
       <c r="Q16" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="R16" s="146"/>
-      <c r="S16" s="146"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
       <c r="T16" s="13" t="s">
         <v>90</v>
       </c>
@@ -3882,80 +3882,80 @@
       </c>
     </row>
     <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="155"/>
-      <c r="AH20" s="155"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="155"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
       <c r="AK20" s="48"/>
       <c r="AL20" s="48"/>
     </row>
@@ -3963,43 +3963,43 @@
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="155"/>
-      <c r="AG21" s="155"/>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="155"/>
-      <c r="AJ21" s="155"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="72"/>
       <c r="AK21" s="48"/>
       <c r="AL21" s="48"/>
     </row>
@@ -4007,43 +4007,43 @@
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="155"/>
-      <c r="AG22" s="155"/>
-      <c r="AH22" s="155"/>
-      <c r="AI22" s="155"/>
-      <c r="AJ22" s="155"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
       <c r="AK22" s="48"/>
       <c r="AL22" s="48"/>
     </row>
@@ -4051,124 +4051,124 @@
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="155"/>
-      <c r="AE23" s="155"/>
-      <c r="AF23" s="155"/>
-      <c r="AG23" s="155"/>
-      <c r="AH23" s="155"/>
-      <c r="AI23" s="155"/>
-      <c r="AJ23" s="155"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
       <c r="AK23" s="48"/>
       <c r="AL23" s="48"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="155"/>
-      <c r="AF24" s="155"/>
-      <c r="AG24" s="155"/>
-      <c r="AH24" s="155"/>
-      <c r="AI24" s="155"/>
-      <c r="AJ24" s="155"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
       <c r="AK24" s="48"/>
       <c r="AL24" s="48"/>
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="155"/>
-      <c r="AF25" s="155"/>
-      <c r="AG25" s="155"/>
-      <c r="AH25" s="155"/>
-      <c r="AI25" s="155"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="48"/>
     </row>
@@ -4176,43 +4176,43 @@
       <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="155"/>
-      <c r="AH26" s="155"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="155"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
       <c r="AK26" s="48"/>
       <c r="AL26" s="48"/>
     </row>
@@ -4220,43 +4220,43 @@
       <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="155"/>
-      <c r="AF27" s="155"/>
-      <c r="AG27" s="155"/>
-      <c r="AH27" s="155"/>
-      <c r="AI27" s="155"/>
-      <c r="AJ27" s="155"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
       <c r="AK27" s="48"/>
       <c r="AL27" s="48"/>
     </row>
@@ -4264,43 +4264,43 @@
       <c r="A28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
       <c r="AK28" s="48"/>
       <c r="AL28" s="48"/>
     </row>
@@ -4308,88 +4308,174 @@
       <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="155"/>
-      <c r="AF29" s="155"/>
-      <c r="AG29" s="155"/>
-      <c r="AH29" s="155"/>
-      <c r="AI29" s="155"/>
-      <c r="AJ29" s="155"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
     </row>
     <row r="30" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="155"/>
-      <c r="AF30" s="155"/>
-      <c r="AG30" s="155"/>
-      <c r="AH30" s="155"/>
-      <c r="AI30" s="155"/>
-      <c r="AJ30" s="155"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="AD7:AK7"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="K8:AA9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="Z2:AC4"/>
+    <mergeCell ref="V2:Y4"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD2:AG4"/>
+    <mergeCell ref="AH2:AK4"/>
+    <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="G7:AC7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="AB8:AC9"/>
+    <mergeCell ref="A1:U3"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:AA10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K11:AA11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="K13:AA13"/>
+    <mergeCell ref="K14:AA14"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="B30:AJ30"/>
     <mergeCell ref="B24:AJ24"/>
     <mergeCell ref="B26:AJ26"/>
@@ -4414,92 +4500,6 @@
     <mergeCell ref="AF14:AG14"/>
     <mergeCell ref="A19:AD19"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K11:AA11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="K13:AA13"/>
-    <mergeCell ref="K14:AA14"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:AA10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="Z2:AC4"/>
-    <mergeCell ref="V2:Y4"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD2:AG4"/>
-    <mergeCell ref="AH2:AK4"/>
-    <mergeCell ref="Z5:AK5"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="G7:AC7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="AB8:AC9"/>
-    <mergeCell ref="A1:U3"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="K8:AA9"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="AD7:AK7"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4921,40 +4921,40 @@
       <c r="L1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="178" t="str">
+      <c r="M1" s="170" t="str">
         <f>IF(P2&lt;=P3,"GL/PL/課長",IF(P2&lt;=P4,"課長",IF(P2&lt;=P5,"部長","社長")))</f>
         <v>GL/PL/課長</v>
       </c>
-      <c r="N1" s="178"/>
+      <c r="N1" s="170"/>
       <c r="R1" s="61"/>
     </row>
     <row r="2" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="175" t="s">
+      <c r="D2" s="171"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="177"/>
+      <c r="G2" s="174"/>
       <c r="H2" s="62">
         <v>0</v>
       </c>
-      <c r="I2" s="175" t="s">
+      <c r="I2" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="176"/>
+      <c r="J2" s="175"/>
       <c r="K2" s="62">
         <v>0</v>
       </c>
-      <c r="L2" s="175" t="s">
+      <c r="L2" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="177"/>
+      <c r="M2" s="174"/>
       <c r="N2" s="63">
         <v>25</v>
       </c>
@@ -4970,25 +4970,25 @@
       <c r="C3" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="175" t="s">
+      <c r="D3" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="177"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="174"/>
       <c r="G3" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174" t="s">
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
       <c r="P3" s="64">
         <v>0.83333333333333337</v>
       </c>
@@ -4998,19 +4998,19 @@
         <v>103</v>
       </c>
       <c r="C4" s="66"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="173"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="179"/>
       <c r="G4" s="67">
         <v>0</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
       <c r="P4" s="64">
         <v>1.0416666666666667</v>
       </c>
@@ -5020,19 +5020,19 @@
         <v>103</v>
       </c>
       <c r="C5" s="66"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="173"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
       <c r="G5" s="67">
         <v>0</v>
       </c>
-      <c r="H5" s="171"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
       <c r="P5" s="64">
         <v>1.25</v>
       </c>
@@ -5042,19 +5042,19 @@
         <v>103</v>
       </c>
       <c r="C6" s="71"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="173"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
       <c r="G6" s="67">
         <v>0</v>
       </c>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
       <c r="P6" s="64"/>
       <c r="R6" s="68"/>
     </row>
@@ -5063,38 +5063,38 @@
         <v>103</v>
       </c>
       <c r="C7" s="71"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="173"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="67">
         <v>0</v>
       </c>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="71" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="67">
         <v>0</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
       <c r="P8" s="64"/>
     </row>
     <row r="9" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -5102,388 +5102,326 @@
         <v>103</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="173"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="179"/>
       <c r="G9" s="67">
         <v>0</v>
       </c>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
     </row>
     <row r="10" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="66"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="173"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="67">
         <v>0</v>
       </c>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
     </row>
     <row r="11" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="66"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="173"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="67">
         <v>0</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
     </row>
     <row r="12" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="66"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="173"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="67">
         <v>0</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
     </row>
     <row r="13" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="67">
         <v>0</v>
       </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="66"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
       <c r="G14" s="67">
         <v>0</v>
       </c>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="66"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
       <c r="G15" s="67">
         <v>0</v>
       </c>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="66"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
       <c r="G16" s="67">
         <v>0</v>
       </c>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="66"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="67">
         <v>0</v>
       </c>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
     </row>
     <row r="18" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="66"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="67">
         <v>0</v>
       </c>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
     </row>
     <row r="19" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="66"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="67">
         <v>0</v>
       </c>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="66"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
       <c r="G20" s="67">
         <v>0</v>
       </c>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="66"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
       <c r="G21" s="67">
         <v>0</v>
       </c>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
     </row>
     <row r="22" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
       <c r="G22" s="67">
         <v>0</v>
       </c>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
     </row>
     <row r="23" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="66"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
       <c r="G23" s="67">
         <v>0</v>
       </c>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="66"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
       <c r="G24" s="67">
         <v>0</v>
       </c>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="66" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="66"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
       <c r="G25" s="67">
         <v>0</v>
       </c>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:N21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:N22"/>
@@ -5496,6 +5434,68 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:N24"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M1:N1">
@@ -5635,25 +5635,25 @@
     <row r="14" spans="2:19" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="E14" s="186" t="s">
+      <c r="E14" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="188"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="186" t="s">
+      <c r="M14" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="188"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="201"/>
     </row>
     <row r="15" spans="2:19" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E15" s="30" t="s">
@@ -5927,394 +5927,422 @@
       <c r="S21" s="44"/>
     </row>
     <row r="23" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="127" t="s">
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="88" t="s">
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="90"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="127"/>
     </row>
     <row r="24" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
       <c r="I24" s="128" t="s">
         <v>34</v>
       </c>
       <c r="J24" s="129"/>
       <c r="K24" s="129"/>
       <c r="L24" s="130"/>
-      <c r="M24" s="74" t="s">
+      <c r="M24" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
       <c r="U24" s="131" t="s">
         <v>33</v>
       </c>
       <c r="V24" s="132"/>
-      <c r="W24" s="99" t="s">
+      <c r="W24" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101" t="s">
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="102"/>
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="152"/>
+      <c r="AD24" s="153"/>
     </row>
     <row r="25" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="86" t="s">
+      <c r="C25" s="157"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="87"/>
-      <c r="K25" s="86" t="s">
+      <c r="J25" s="155"/>
+      <c r="K25" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="100"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="86"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="101"/>
       <c r="V25" s="133"/>
-      <c r="W25" s="99" t="s">
+      <c r="W25" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="86" t="s">
+      <c r="X25" s="155"/>
+      <c r="Y25" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="103" t="s">
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="101" t="s">
+      <c r="AB25" s="154"/>
+      <c r="AC25" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="AD25" s="102"/>
+      <c r="AD25" s="153"/>
     </row>
     <row r="26" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="209">
+      <c r="D26" s="183">
         <v>38919</v>
       </c>
-      <c r="E26" s="210"/>
+      <c r="E26" s="184"/>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="210">
+      <c r="G26" s="184">
         <v>38927</v>
       </c>
-      <c r="H26" s="210"/>
-      <c r="I26" s="213" t="s">
+      <c r="H26" s="184"/>
+      <c r="I26" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="214"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="202" t="s">
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="203"/>
-      <c r="Q26" s="203"/>
-      <c r="R26" s="203"/>
-      <c r="S26" s="203"/>
-      <c r="T26" s="204"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="196" t="s">
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="189"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="X26" s="197"/>
-      <c r="Y26" s="198"/>
-      <c r="Z26" s="199"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="211"/>
-      <c r="AD26" s="212"/>
+      <c r="X26" s="212"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="192"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="181"/>
+      <c r="AD26" s="182"/>
     </row>
     <row r="27" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="209">
+      <c r="D27" s="183">
         <v>38928</v>
       </c>
-      <c r="E27" s="210"/>
+      <c r="E27" s="184"/>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="210">
+      <c r="G27" s="184">
         <v>38934</v>
       </c>
-      <c r="H27" s="210"/>
-      <c r="I27" s="213" t="s">
+      <c r="H27" s="184"/>
+      <c r="I27" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="98"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="203"/>
-      <c r="O27" s="203"/>
-      <c r="P27" s="203"/>
-      <c r="Q27" s="203"/>
-      <c r="R27" s="203"/>
-      <c r="S27" s="203"/>
-      <c r="T27" s="204"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="192"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="207"/>
-      <c r="AD27" s="208"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="189"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="207"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="193"/>
+      <c r="AD27" s="194"/>
     </row>
     <row r="28" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="209">
+      <c r="D28" s="183">
         <v>38935</v>
       </c>
-      <c r="E28" s="210"/>
+      <c r="E28" s="184"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="210">
+      <c r="G28" s="184">
         <v>38941</v>
       </c>
-      <c r="H28" s="210"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="97" t="s">
+      <c r="H28" s="184"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="192"/>
-      <c r="M28" s="202" t="s">
+      <c r="L28" s="186"/>
+      <c r="M28" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="203"/>
-      <c r="Q28" s="203"/>
-      <c r="R28" s="203"/>
-      <c r="S28" s="203"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="97" t="s">
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="189"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="207"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="Z28" s="192"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="207"/>
-      <c r="AD28" s="208"/>
+      <c r="Z28" s="186"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="193"/>
+      <c r="AD28" s="194"/>
     </row>
     <row r="29" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7">
         <v>4</v>
       </c>
-      <c r="D29" s="209">
+      <c r="D29" s="183">
         <v>38942</v>
       </c>
-      <c r="E29" s="210"/>
+      <c r="E29" s="184"/>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="210">
+      <c r="G29" s="184">
         <v>38948</v>
       </c>
-      <c r="H29" s="210"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="203"/>
-      <c r="O29" s="203"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="204"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="192"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="207"/>
-      <c r="AD29" s="208"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="188"/>
+      <c r="T29" s="189"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="207"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="186"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="193"/>
+      <c r="AD29" s="194"/>
     </row>
     <row r="30" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="10">
         <v>5</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="195">
         <v>38949</v>
       </c>
-      <c r="E30" s="201"/>
+      <c r="E30" s="196"/>
       <c r="F30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="201">
+      <c r="G30" s="196">
         <v>38949</v>
       </c>
-      <c r="H30" s="201"/>
+      <c r="H30" s="196"/>
       <c r="I30" s="11"/>
       <c r="J30" s="6"/>
       <c r="K30" s="11"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="203"/>
-      <c r="O30" s="203"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="203"/>
-      <c r="R30" s="203"/>
-      <c r="S30" s="203"/>
-      <c r="T30" s="204"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="105"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="188"/>
+      <c r="O30" s="188"/>
+      <c r="P30" s="188"/>
+      <c r="Q30" s="188"/>
+      <c r="R30" s="188"/>
+      <c r="S30" s="188"/>
+      <c r="T30" s="189"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="104"/>
       <c r="W30" s="20"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="205"/>
-      <c r="Z30" s="206"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="159"/>
-      <c r="AD30" s="160"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="198"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="84"/>
     </row>
     <row r="31" spans="3:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="181" t="s">
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="182"/>
-      <c r="K31" s="181" t="s">
+      <c r="J31" s="205"/>
+      <c r="K31" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="183"/>
-      <c r="M31" s="193"/>
-      <c r="N31" s="194"/>
-      <c r="O31" s="194"/>
-      <c r="P31" s="194"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="194"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="181" t="s">
+      <c r="L31" s="206"/>
+      <c r="M31" s="208"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="209"/>
+      <c r="P31" s="209"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="209"/>
+      <c r="S31" s="209"/>
+      <c r="T31" s="210"/>
+      <c r="U31" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="V31" s="189"/>
-      <c r="W31" s="190" t="s">
+      <c r="V31" s="203"/>
+      <c r="W31" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="181" t="s">
+      <c r="X31" s="205"/>
+      <c r="Y31" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="181" t="s">
+      <c r="Z31" s="206"/>
+      <c r="AA31" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="184" t="s">
+      <c r="AB31" s="205"/>
+      <c r="AC31" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="AD31" s="185"/>
+      <c r="AD31" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="I23:V23"/>
-    <mergeCell ref="W23:AD23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="M24:T25"/>
-    <mergeCell ref="U24:V25"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="M31:T31"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="M30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:T28"/>
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="D27:E27"/>
@@ -6331,49 +6359,21 @@
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="AA27:AB27"/>
     <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:T28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="M30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="M31:T31"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="I23:V23"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="M24:T25"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
